--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Angpt4-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Angpt4-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Angpt4</t>
+  </si>
+  <si>
+    <t>Tek</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Angpt4</t>
-  </si>
-  <si>
-    <t>Tek</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.005798333333333332</v>
+        <v>0.662776</v>
       </c>
       <c r="H2">
-        <v>0.017395</v>
+        <v>1.988328</v>
       </c>
       <c r="I2">
-        <v>0.007362451876356518</v>
+        <v>0.8235595263242913</v>
       </c>
       <c r="J2">
-        <v>0.007362451876356518</v>
+        <v>0.8235595263242914</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.37835899999999</v>
+        <v>58.51417433333334</v>
       </c>
       <c r="N2">
-        <v>154.135077</v>
+        <v>175.542523</v>
       </c>
       <c r="O2">
-        <v>0.8798212945621328</v>
+        <v>0.9208013000516164</v>
       </c>
       <c r="P2">
-        <v>0.879821294562133</v>
+        <v>0.9208013000516164</v>
       </c>
       <c r="Q2">
-        <v>0.2979088516016666</v>
+        <v>38.78179040794934</v>
       </c>
       <c r="R2">
-        <v>2.681179664414999</v>
+        <v>349.0361136715441</v>
       </c>
       <c r="S2">
-        <v>0.006477641941007395</v>
+        <v>0.7583346825093008</v>
       </c>
       <c r="T2">
-        <v>0.006477641941007397</v>
+        <v>0.7583346825093009</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.005798333333333332</v>
+        <v>0.662776</v>
       </c>
       <c r="H3">
-        <v>0.017395</v>
+        <v>1.988328</v>
       </c>
       <c r="I3">
-        <v>0.007362451876356518</v>
+        <v>0.8235595263242913</v>
       </c>
       <c r="J3">
-        <v>0.007362451876356518</v>
+        <v>0.8235595263242914</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +629,22 @@
         <v>12.625225</v>
       </c>
       <c r="O3">
-        <v>0.07206628121150001</v>
+        <v>0.06622511397676659</v>
       </c>
       <c r="P3">
-        <v>0.07206628121150001</v>
+        <v>0.06622511397676657</v>
       </c>
       <c r="Q3">
-        <v>0.02440175431944444</v>
+        <v>2.789232041533334</v>
       </c>
       <c r="R3">
-        <v>0.219615788875</v>
+        <v>25.1030883738</v>
       </c>
       <c r="S3">
-        <v>0.0005305845273276447</v>
+        <v>0.0545403234974781</v>
       </c>
       <c r="T3">
-        <v>0.0005305845273276447</v>
+        <v>0.05454032349747809</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.005798333333333332</v>
+        <v>0.662776</v>
       </c>
       <c r="H4">
-        <v>0.017395</v>
+        <v>1.988328</v>
       </c>
       <c r="I4">
-        <v>0.007362451876356518</v>
+        <v>0.8235595263242913</v>
       </c>
       <c r="J4">
-        <v>0.007362451876356518</v>
+        <v>0.8235595263242914</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.568043</v>
+        <v>0.1957283333333334</v>
       </c>
       <c r="N4">
-        <v>7.704129</v>
+        <v>0.5871850000000001</v>
       </c>
       <c r="O4">
-        <v>0.04397608177309095</v>
+        <v>0.003080055488155473</v>
       </c>
       <c r="P4">
-        <v>0.04397608177309097</v>
+        <v>0.003080055488155473</v>
       </c>
       <c r="Q4">
-        <v>0.01489036932833333</v>
+        <v>0.1297240418533334</v>
       </c>
       <c r="R4">
-        <v>0.134013323955</v>
+        <v>1.16751637668</v>
       </c>
       <c r="S4">
-        <v>0.0003237717857651011</v>
+        <v>0.002536609038877855</v>
       </c>
       <c r="T4">
-        <v>0.0003237717857651013</v>
+        <v>0.002536609038877855</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,75 +714,75 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.005798333333333332</v>
+        <v>0.662776</v>
       </c>
       <c r="H5">
-        <v>0.017395</v>
+        <v>1.988328</v>
       </c>
       <c r="I5">
-        <v>0.007362451876356518</v>
+        <v>0.8235595263242913</v>
       </c>
       <c r="J5">
-        <v>0.007362451876356518</v>
+        <v>0.8235595263242914</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2415473333333333</v>
+        <v>0.6056613333333333</v>
       </c>
       <c r="N5">
-        <v>0.724642</v>
+        <v>1.816984</v>
       </c>
       <c r="O5">
-        <v>0.004136342453276182</v>
+        <v>0.00953091707228673</v>
       </c>
       <c r="P5">
-        <v>0.004136342453276183</v>
+        <v>0.00953091707228673</v>
       </c>
       <c r="Q5">
-        <v>0.001400571954444444</v>
+        <v>0.4014177958613333</v>
       </c>
       <c r="R5">
-        <v>0.01260514759</v>
+        <v>3.612760162752</v>
       </c>
       <c r="S5">
-        <v>3.045362225637634E-05</v>
+        <v>0.007849277549488561</v>
       </c>
       <c r="T5">
-        <v>3.045362225637635E-05</v>
+        <v>0.007849277549488562</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +797,40 @@
         <v>1.988328</v>
       </c>
       <c r="I6">
-        <v>0.8415618979253927</v>
+        <v>0.8235595263242913</v>
       </c>
       <c r="J6">
-        <v>0.8415618979253927</v>
+        <v>0.8235595263242914</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>51.37835899999999</v>
+        <v>0.023043</v>
       </c>
       <c r="N6">
-        <v>154.135077</v>
+        <v>0.069129</v>
       </c>
       <c r="O6">
-        <v>0.8798212945621328</v>
+        <v>0.0003626134111748421</v>
       </c>
       <c r="P6">
-        <v>0.879821294562133</v>
+        <v>0.0003626134111748421</v>
       </c>
       <c r="Q6">
-        <v>34.052343264584</v>
+        <v>0.015272347368</v>
       </c>
       <c r="R6">
-        <v>306.4710893812559</v>
+        <v>0.137451126312</v>
       </c>
       <c r="S6">
-        <v>0.7404240784868844</v>
+        <v>0.0002986337291459885</v>
       </c>
       <c r="T6">
-        <v>0.7404240784868846</v>
+        <v>0.0002986337291459885</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +838,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.662776</v>
+        <v>0.04591633333333334</v>
       </c>
       <c r="H7">
-        <v>1.988328</v>
+        <v>0.137749</v>
       </c>
       <c r="I7">
-        <v>0.8415618979253927</v>
+        <v>0.05705522488827035</v>
       </c>
       <c r="J7">
-        <v>0.8415618979253927</v>
+        <v>0.05705522488827036</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.208408333333334</v>
+        <v>58.51417433333334</v>
       </c>
       <c r="N7">
-        <v>12.625225</v>
+        <v>175.542523</v>
       </c>
       <c r="O7">
-        <v>0.07206628121150001</v>
+        <v>0.9208013000516164</v>
       </c>
       <c r="P7">
-        <v>0.07206628121150001</v>
+        <v>0.9208013000516164</v>
       </c>
       <c r="Q7">
-        <v>2.789232041533334</v>
+        <v>2.686756333414111</v>
       </c>
       <c r="R7">
-        <v>25.1030883738</v>
+        <v>24.180807000727</v>
       </c>
       <c r="S7">
-        <v>0.06064823639277502</v>
+        <v>0.05253652525185668</v>
       </c>
       <c r="T7">
-        <v>0.06064823639277502</v>
+        <v>0.05253652525185669</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.662776</v>
+        <v>0.04591633333333334</v>
       </c>
       <c r="H8">
-        <v>1.988328</v>
+        <v>0.137749</v>
       </c>
       <c r="I8">
-        <v>0.8415618979253927</v>
+        <v>0.05705522488827035</v>
       </c>
       <c r="J8">
-        <v>0.8415618979253927</v>
+        <v>0.05705522488827036</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.568043</v>
+        <v>4.208408333333334</v>
       </c>
       <c r="N8">
-        <v>7.704129</v>
+        <v>12.625225</v>
       </c>
       <c r="O8">
-        <v>0.04397608177309095</v>
+        <v>0.06622511397676659</v>
       </c>
       <c r="P8">
-        <v>0.04397608177309097</v>
+        <v>0.06622511397676657</v>
       </c>
       <c r="Q8">
-        <v>1.702037267368</v>
+        <v>0.1932346798361111</v>
       </c>
       <c r="R8">
-        <v>15.318335406312</v>
+        <v>1.739112118525</v>
       </c>
       <c r="S8">
-        <v>0.03700859484028469</v>
+        <v>0.003778488771195754</v>
       </c>
       <c r="T8">
-        <v>0.0370085948402847</v>
+        <v>0.003778488771195754</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.662776</v>
+        <v>0.04591633333333334</v>
       </c>
       <c r="H9">
-        <v>1.988328</v>
+        <v>0.137749</v>
       </c>
       <c r="I9">
-        <v>0.8415618979253927</v>
+        <v>0.05705522488827035</v>
       </c>
       <c r="J9">
-        <v>0.8415618979253927</v>
+        <v>0.05705522488827036</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,60 +995,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2415473333333333</v>
+        <v>0.1957283333333334</v>
       </c>
       <c r="N9">
-        <v>0.724642</v>
+        <v>0.5871850000000001</v>
       </c>
       <c r="O9">
-        <v>0.004136342453276182</v>
+        <v>0.003080055488155473</v>
       </c>
       <c r="P9">
-        <v>0.004136342453276183</v>
+        <v>0.003080055488155473</v>
       </c>
       <c r="Q9">
-        <v>0.1600917753973334</v>
+        <v>0.008987127396111114</v>
       </c>
       <c r="R9">
-        <v>1.440825978576</v>
+        <v>0.08088414656500001</v>
       </c>
       <c r="S9">
-        <v>0.003480988205448479</v>
+        <v>0.0001757332585450619</v>
       </c>
       <c r="T9">
-        <v>0.003480988205448479</v>
+        <v>0.0001757332585450619</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.1189803333333333</v>
+        <v>0.04591633333333334</v>
       </c>
       <c r="H10">
-        <v>0.356941</v>
+        <v>0.137749</v>
       </c>
       <c r="I10">
-        <v>0.1510756501982508</v>
+        <v>0.05705522488827035</v>
       </c>
       <c r="J10">
-        <v>0.1510756501982508</v>
+        <v>0.05705522488827036</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,90 +1057,90 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>51.37835899999999</v>
+        <v>0.6056613333333333</v>
       </c>
       <c r="N10">
-        <v>154.135077</v>
+        <v>1.816984</v>
       </c>
       <c r="O10">
-        <v>0.8798212945621328</v>
+        <v>0.00953091707228673</v>
       </c>
       <c r="P10">
-        <v>0.879821294562133</v>
+        <v>0.00953091707228673</v>
       </c>
       <c r="Q10">
-        <v>6.113014279939666</v>
+        <v>0.02780974766844444</v>
       </c>
       <c r="R10">
-        <v>55.01712851945699</v>
+        <v>0.250287729016</v>
       </c>
       <c r="S10">
-        <v>0.1329195741342409</v>
+        <v>0.0005437886169507747</v>
       </c>
       <c r="T10">
-        <v>0.132919574134241</v>
+        <v>0.0005437886169507748</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.1189803333333333</v>
+        <v>0.04591633333333334</v>
       </c>
       <c r="H11">
-        <v>0.356941</v>
+        <v>0.137749</v>
       </c>
       <c r="I11">
-        <v>0.1510756501982508</v>
+        <v>0.05705522488827035</v>
       </c>
       <c r="J11">
-        <v>0.1510756501982508</v>
+        <v>0.05705522488827036</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>4.208408333333334</v>
+        <v>0.023043</v>
       </c>
       <c r="N11">
-        <v>12.625225</v>
+        <v>0.069129</v>
       </c>
       <c r="O11">
-        <v>0.07206628121150001</v>
+        <v>0.0003626134111748421</v>
       </c>
       <c r="P11">
-        <v>0.07206628121150001</v>
+        <v>0.0003626134111748421</v>
       </c>
       <c r="Q11">
-        <v>0.5007178263027778</v>
+        <v>0.001058050069</v>
       </c>
       <c r="R11">
-        <v>4.506460436725</v>
+        <v>0.009522450621</v>
       </c>
       <c r="S11">
-        <v>0.01088746029139735</v>
+        <v>2.068898972208347E-05</v>
       </c>
       <c r="T11">
-        <v>0.01088746029139735</v>
+        <v>2.068898972208347E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1148,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1189803333333333</v>
+        <v>0.036545</v>
       </c>
       <c r="H12">
-        <v>0.356941</v>
+        <v>0.109635</v>
       </c>
       <c r="I12">
-        <v>0.1510756501982508</v>
+        <v>0.04541048995365135</v>
       </c>
       <c r="J12">
-        <v>0.1510756501982508</v>
+        <v>0.04541048995365135</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.568043</v>
+        <v>58.51417433333334</v>
       </c>
       <c r="N12">
-        <v>7.704129</v>
+        <v>175.542523</v>
       </c>
       <c r="O12">
-        <v>0.04397608177309095</v>
+        <v>0.9208013000516164</v>
       </c>
       <c r="P12">
-        <v>0.04397608177309097</v>
+        <v>0.9208013000516164</v>
       </c>
       <c r="Q12">
-        <v>0.3055466121543333</v>
+        <v>2.138400501011667</v>
       </c>
       <c r="R12">
-        <v>2.749919509389</v>
+        <v>19.245604509105</v>
       </c>
       <c r="S12">
-        <v>0.006643715147041161</v>
+        <v>0.04181403818530303</v>
       </c>
       <c r="T12">
-        <v>0.006643715147041163</v>
+        <v>0.04181403818530303</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1210,557 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.036545</v>
+      </c>
+      <c r="H13">
+        <v>0.109635</v>
+      </c>
+      <c r="I13">
+        <v>0.04541048995365135</v>
+      </c>
+      <c r="J13">
+        <v>0.04541048995365135</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.208408333333334</v>
+      </c>
+      <c r="N13">
+        <v>12.625225</v>
+      </c>
+      <c r="O13">
+        <v>0.06622511397676659</v>
+      </c>
+      <c r="P13">
+        <v>0.06622511397676657</v>
+      </c>
+      <c r="Q13">
+        <v>0.1537962825416667</v>
+      </c>
+      <c r="R13">
+        <v>1.384166542875</v>
+      </c>
+      <c r="S13">
+        <v>0.003007314872921375</v>
+      </c>
+      <c r="T13">
+        <v>0.003007314872921374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.036545</v>
+      </c>
+      <c r="H14">
+        <v>0.109635</v>
+      </c>
+      <c r="I14">
+        <v>0.04541048995365135</v>
+      </c>
+      <c r="J14">
+        <v>0.04541048995365135</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1957283333333334</v>
+      </c>
+      <c r="N14">
+        <v>0.5871850000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.003080055488155473</v>
+      </c>
+      <c r="P14">
+        <v>0.003080055488155473</v>
+      </c>
+      <c r="Q14">
+        <v>0.007152891941666668</v>
+      </c>
+      <c r="R14">
+        <v>0.064376027475</v>
+      </c>
+      <c r="S14">
+        <v>0.0001398668288015728</v>
+      </c>
+      <c r="T14">
+        <v>0.0001398668288015728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.036545</v>
+      </c>
+      <c r="H15">
+        <v>0.109635</v>
+      </c>
+      <c r="I15">
+        <v>0.04541048995365135</v>
+      </c>
+      <c r="J15">
+        <v>0.04541048995365135</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.6056613333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.816984</v>
+      </c>
+      <c r="O15">
+        <v>0.00953091707228673</v>
+      </c>
+      <c r="P15">
+        <v>0.00953091707228673</v>
+      </c>
+      <c r="Q15">
+        <v>0.02213389342666667</v>
+      </c>
+      <c r="R15">
+        <v>0.19920504084</v>
+      </c>
+      <c r="S15">
+        <v>0.0004328036139601607</v>
+      </c>
+      <c r="T15">
+        <v>0.0004328036139601607</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.036545</v>
+      </c>
+      <c r="H16">
+        <v>0.109635</v>
+      </c>
+      <c r="I16">
+        <v>0.04541048995365135</v>
+      </c>
+      <c r="J16">
+        <v>0.04541048995365135</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.023043</v>
+      </c>
+      <c r="N16">
+        <v>0.069129</v>
+      </c>
+      <c r="O16">
+        <v>0.0003626134111748421</v>
+      </c>
+      <c r="P16">
+        <v>0.0003626134111748421</v>
+      </c>
+      <c r="Q16">
+        <v>0.0008421064349999999</v>
+      </c>
+      <c r="R16">
+        <v>0.007578957914999999</v>
+      </c>
+      <c r="S16">
+        <v>1.646645266521442E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.646645266521442E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05953266666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.178598</v>
+      </c>
+      <c r="I17">
+        <v>0.07397475883378687</v>
+      </c>
+      <c r="J17">
+        <v>0.07397475883378689</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>58.51417433333334</v>
+      </c>
+      <c r="N17">
+        <v>175.542523</v>
+      </c>
+      <c r="O17">
+        <v>0.9208013000516164</v>
+      </c>
+      <c r="P17">
+        <v>0.9208013000516164</v>
+      </c>
+      <c r="Q17">
+        <v>3.483504835861556</v>
+      </c>
+      <c r="R17">
+        <v>31.351543522754</v>
+      </c>
+      <c r="S17">
+        <v>0.06811605410515575</v>
+      </c>
+      <c r="T17">
+        <v>0.06811605410515577</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.05953266666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.178598</v>
+      </c>
+      <c r="I18">
+        <v>0.07397475883378687</v>
+      </c>
+      <c r="J18">
+        <v>0.07397475883378689</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.208408333333334</v>
+      </c>
+      <c r="N18">
+        <v>12.625225</v>
+      </c>
+      <c r="O18">
+        <v>0.06622511397676659</v>
+      </c>
+      <c r="P18">
+        <v>0.06622511397676657</v>
+      </c>
+      <c r="Q18">
+        <v>0.2505377705055556</v>
+      </c>
+      <c r="R18">
+        <v>2.25483993455</v>
+      </c>
+      <c r="S18">
+        <v>0.004898986835171357</v>
+      </c>
+      <c r="T18">
+        <v>0.004898986835171357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.05953266666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.178598</v>
+      </c>
+      <c r="I19">
+        <v>0.07397475883378687</v>
+      </c>
+      <c r="J19">
+        <v>0.07397475883378689</v>
+      </c>
+      <c r="K19">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="L19">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G13">
-        <v>0.1189803333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.356941</v>
-      </c>
-      <c r="I13">
-        <v>0.1510756501982508</v>
-      </c>
-      <c r="J13">
-        <v>0.1510756501982508</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.2415473333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.724642</v>
-      </c>
-      <c r="O13">
-        <v>0.004136342453276182</v>
-      </c>
-      <c r="P13">
-        <v>0.004136342453276183</v>
-      </c>
-      <c r="Q13">
-        <v>0.02873938223577778</v>
-      </c>
-      <c r="R13">
-        <v>0.258654440122</v>
-      </c>
-      <c r="S13">
-        <v>0.0006249006255713269</v>
-      </c>
-      <c r="T13">
-        <v>0.000624900625571327</v>
+      <c r="M19">
+        <v>0.1957283333333334</v>
+      </c>
+      <c r="N19">
+        <v>0.5871850000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.003080055488155473</v>
+      </c>
+      <c r="P19">
+        <v>0.003080055488155473</v>
+      </c>
+      <c r="Q19">
+        <v>0.01165222962555556</v>
+      </c>
+      <c r="R19">
+        <v>0.10487006663</v>
+      </c>
+      <c r="S19">
+        <v>0.0002278463619309829</v>
+      </c>
+      <c r="T19">
+        <v>0.0002278463619309829</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.05953266666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.178598</v>
+      </c>
+      <c r="I20">
+        <v>0.07397475883378687</v>
+      </c>
+      <c r="J20">
+        <v>0.07397475883378689</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.6056613333333333</v>
+      </c>
+      <c r="N20">
+        <v>1.816984</v>
+      </c>
+      <c r="O20">
+        <v>0.00953091707228673</v>
+      </c>
+      <c r="P20">
+        <v>0.00953091707228673</v>
+      </c>
+      <c r="Q20">
+        <v>0.03605663427022222</v>
+      </c>
+      <c r="R20">
+        <v>0.324509708432</v>
+      </c>
+      <c r="S20">
+        <v>0.0007050472918872329</v>
+      </c>
+      <c r="T20">
+        <v>0.0007050472918872331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.05953266666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.178598</v>
+      </c>
+      <c r="I21">
+        <v>0.07397475883378687</v>
+      </c>
+      <c r="J21">
+        <v>0.07397475883378689</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.023043</v>
+      </c>
+      <c r="N21">
+        <v>0.069129</v>
+      </c>
+      <c r="O21">
+        <v>0.0003626134111748421</v>
+      </c>
+      <c r="P21">
+        <v>0.0003626134111748421</v>
+      </c>
+      <c r="Q21">
+        <v>0.001371811238</v>
+      </c>
+      <c r="R21">
+        <v>0.012346301142</v>
+      </c>
+      <c r="S21">
+        <v>2.682423964155574E-05</v>
+      </c>
+      <c r="T21">
+        <v>2.682423964155575E-05</v>
       </c>
     </row>
   </sheetData>
